--- a/uploads/upload_file.xlsx
+++ b/uploads/upload_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayu0\OneDrive\ドキュメント\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6C31A-9EF4-4A7B-B760-A948B1612D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9497D-BA0C-4DDF-A8CA-4A31918CC925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8910" yWindow="1965" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>本支店コード</t>
   </si>
@@ -309,10 +309,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -320,125 +320,130 @@
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20221101</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>20221102</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1501</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2500</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>20221103</v>
+        <v>20221101</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="F4" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>20221104</v>
+        <v>20221102</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F5" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>20221105</v>
+        <v>20221103</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="F6" s="1">
-        <v>10000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20221104</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1503</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20221105</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1504</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="1">
         <v>20221106</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
         <v>1505</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F9" s="1">
         <v>54300</v>
       </c>
     </row>

--- a/uploads/upload_file.xlsx
+++ b/uploads/upload_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayu0\OneDrive\ドキュメント\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9497D-BA0C-4DDF-A8CA-4A31918CC925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6C31A-9EF4-4A7B-B760-A948B1612D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="1965" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>本支店コード</t>
   </si>
@@ -309,10 +309,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -320,130 +320,125 @@
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20221101</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" s="1">
+        <v>20221102</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1501</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2500</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>20221101</v>
+        <v>20221103</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="F4" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>20221102</v>
+        <v>20221104</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="F5" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>20221103</v>
+        <v>20221105</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="F6" s="1">
-        <v>3000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>20221104</v>
+        <v>20221106</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="F7" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20221105</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1504</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>20221106</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1505</v>
-      </c>
-      <c r="F9" s="1">
         <v>54300</v>
       </c>
     </row>

--- a/uploads/upload_file.xlsx
+++ b/uploads/upload_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayu0\OneDrive\ドキュメント\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6C31A-9EF4-4A7B-B760-A948B1612D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7ABD3B-A047-4F22-9747-F5BF2E74AEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9075" yWindow="3195" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -320,7 +320,7 @@
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -340,7 +340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -357,7 +357,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -374,7 +374,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -391,7 +391,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -408,7 +408,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -425,7 +425,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>

--- a/uploads/upload_file.xlsx
+++ b/uploads/upload_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayu0\OneDrive\ドキュメント\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7ABD3B-A047-4F22-9747-F5BF2E74AEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6C31A-9EF4-4A7B-B760-A948B1612D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9075" yWindow="3195" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -320,7 +320,7 @@
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -340,7 +340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -357,7 +357,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -374,7 +374,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -391,7 +391,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -408,7 +408,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -425,7 +425,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>

--- a/uploads/upload_file.xlsx
+++ b/uploads/upload_file.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayu0\OneDrive\ドキュメント\app\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6C31A-9EF4-4A7B-B760-A948B1612D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,25 +40,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -76,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,81 +74,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -170,131 +227,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -305,146 +391,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>20221101</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2">
         <v>1500</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>20221102</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3">
         <v>1501</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3">
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>20221103</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4">
         <v>1502</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4">
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>20221104</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5">
         <v>1503</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5">
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>20221105</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6">
         <v>1504</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>20221106</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7">
         <v>1505</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7">
         <v>54300</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>